--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garibotti/Desktop/Radiacao_Resultados_Fev_22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garibotti/Desktop/Radiacao_Resultados_Fev_22/radiation_feb_22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CB863-3001-4640-84CC-D229B8EF075E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC35F0E3-5A6B-7B47-8B65-642AF08F3A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="22900" windowHeight="13920" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
+    <workbookView xWindow="4580" yWindow="1660" windowWidth="22900" windowHeight="9500" activeTab="1" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="8jpg_yolov5_on_cX_in_sequence" sheetId="1" r:id="rId1"/>
+    <sheet name="7jpg_yolov5_on_cX" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Total</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>February 9th, 2022</t>
+  </si>
+  <si>
+    <t>February 17th, 2022</t>
   </si>
 </sst>
 </file>
@@ -208,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +231,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,25 +567,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942BB48D-C9B9-944D-8C94-74735C4CBEBD}">
   <dimension ref="C3:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
@@ -744,17 +751,17 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
@@ -920,17 +927,17 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="4"/>
@@ -1102,4 +1109,182 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876B9EAF-1DB9-5445-AA0D-84EA29E6CED4}">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1">
+        <v>79</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUM(C4:I4)</f>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="6">
+        <f>SUM(C5:I5)/J4</f>
+        <v>0.65321100917431196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(C6:I6)/J4</f>
+        <v>1.4678899082568808E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6">
+        <f>SUM(C7:I7)/J4</f>
+        <v>0.33211009174311928</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garibotti/Desktop/Radiacao_Resultados_Fev_22/radiation_feb_22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC35F0E3-5A6B-7B47-8B65-642AF08F3A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA8F09-6F8A-7745-A6C5-584EFF152E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="1660" windowWidth="22900" windowHeight="9500" activeTab="1" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
+    <workbookView xWindow="6240" yWindow="2020" windowWidth="24160" windowHeight="11640" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
   </bookViews>
   <sheets>
     <sheet name="8jpg_yolov5_on_cX_in_sequence" sheetId="1" r:id="rId1"/>
     <sheet name="7jpg_yolov5_on_cX" sheetId="2" r:id="rId2"/>
+    <sheet name="Mismatch_Files" sheetId="3" r:id="rId3"/>
+    <sheet name="Flux_Calc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>Total</t>
   </si>
@@ -61,19 +63,226 @@
     <t>DUSVs_7</t>
   </si>
   <si>
-    <t>February 7th and 8th, 2022</t>
-  </si>
-  <si>
     <t>Correct</t>
   </si>
   <si>
+    <t>February 9th, 2022</t>
+  </si>
+  <si>
+    <t>February 17th, 2022</t>
+  </si>
+  <si>
+    <t>February 18th, 2022</t>
+  </si>
+  <si>
+    <t>February 8th, 2022</t>
+  </si>
+  <si>
+    <t>20220208-8jpg_yolov5_on_cX_but_in_sequence</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c6/sets_of_output_vectors/fifo1_c6_run12/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c6/sets_of_output_vectors/fifo1_c6_run27/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c6/sets_of_output_vectors/fifo1_c6_run61/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c6/sets_of_output_vectors/fifo1_c6_run10/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c6/sets_of_output_vectors/fifo1_c6_run64/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_7_on_c6/sets_of_output_vectors/fifo1_c6_run9/7.jpg</t>
+  </si>
+  <si>
+    <t>20220209_8jpg_yolov5_on_cX_but_in_sequence</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c6/sets_of_output_vectors/fifo1_c6_run42/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c6/sets_of_output_vectors/fifo1_c6_run45/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c6/sets_of_output_vectors/fifo1_c6_run29/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_5_on_c6/sets_of_output_vectors/fifo1_c6_run34/5.jpg</t>
+  </si>
+  <si>
+    <t>20220217-7jpg_yolov5_on_cX</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c5/sets_of_output_vectors/fifo1_c5_run54/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c5/sets_of_output_vectors/fifo1_c5_run57/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run21/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run26/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run58/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run55/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run31/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run55/4.jpg</t>
+  </si>
+  <si>
+    <t>20220218-7jpg_yolov5_on_cX</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run12/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run13/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run14/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run59/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run65/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_0_on_c5/sets_of_output_vectors/fifo1_c5_run71/0.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c5/sets_of_output_vectors/fifo1_c5_run30/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_1_on_c5/sets_of_output_vectors/fifo1_c5_run52/1.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run10/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run15/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run17/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run18/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run56/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run59/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run60/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run73/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_2_on_c5/sets_of_output_vectors/fifo1_c5_run86/2.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run17/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run18/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run19/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run20/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run34/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_3_on_c5/sets_of_output_vectors/fifo1_c5_run71/3.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run15/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run16/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run17/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run18/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run35/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run57/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_4_on_c5/sets_of_output_vectors/fifo1_c5_run73/4.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_5_on_c5/sets_of_output_vectors/fifo1_c5_run30/5.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_5_on_c5/sets_of_output_vectors/fifo1_c5_run51/5.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_5_on_c5/sets_of_output_vectors/fifo1_c5_run66/5.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_5_on_c5/sets_of_output_vectors/fifo1_c5_run71/5.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c5/sets_of_output_vectors/fifo1_c5_run16/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c5/sets_of_output_vectors/fifo1_c5_run17/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c5/sets_of_output_vectors/fifo1_c5_run18/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c5/sets_of_output_vectors/fifo1_c5_run60/6.jpg</t>
+  </si>
+  <si>
+    <t>DUSVs_6_on_c5/sets_of_output_vectors/fifo1_c5_run71/6.jpg</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fluxo (n/mˆ2/s)</t>
+  </si>
+  <si>
+    <t>Distância (mm)</t>
+  </si>
+  <si>
     <t>February 7th, 2022</t>
   </si>
   <si>
-    <t>February 9th, 2022</t>
-  </si>
-  <si>
-    <t>February 17th, 2022</t>
+    <t>Obs.: Estimado por meus cálculos</t>
+  </si>
+  <si>
+    <t>Obs.: O Rodrigo informou que o fluxo foi calculado para ficar 10% a mais do que no dia anterior (17/02)</t>
   </si>
 </sst>
 </file>
@@ -83,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,8 +323,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +376,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,24 +464,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,6 +512,43 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,315 +864,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942BB48D-C9B9-944D-8C94-74735C4CBEBD}">
-  <dimension ref="C3:L23"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="4"/>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="1">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1">
+        <v>68</v>
+      </c>
+      <c r="I4" s="1">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1">
+        <v>68</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM(C4:J4)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>66</v>
+      </c>
       <c r="D5" s="1">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1">
-        <v>24</v>
-      </c>
-      <c r="L5" s="5">
-        <f>SUM(D5:K5)</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="K5" s="5">
+        <f>SUM(C5:J5)/K4</f>
+        <v>0.94953271028037378</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6">
-        <f>SUM(D6:K6)/L5</f>
-        <v>0.9505494505494505</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K6" s="5">
+        <f>SUM(C6:J6)/K4</f>
+        <v>1.1214953271028037E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
+        <f>SUM(C7:J7)/K4</f>
+        <v>3.925233644859813E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="C11" s="1">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM(C11:J11)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(C12:J12)/K11</f>
+        <v>0.94535519125683065</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="6">
-        <f>SUM(D7:K7)/L5</f>
-        <v>1.6483516483516484E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <f>SUM(C13:J13)/K11</f>
+        <v>1.092896174863388E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="6">
-        <f>SUM(D8:K8)/L5</f>
-        <v>3.2967032967032968E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1">
-        <v>65</v>
-      </c>
-      <c r="H12" s="1">
-        <v>66</v>
-      </c>
-      <c r="I12" s="1">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1">
-        <v>68</v>
-      </c>
-      <c r="L12" s="5">
-        <f>SUM(D12:K12)</f>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1">
-        <v>62</v>
-      </c>
-      <c r="I13" s="1">
-        <v>66</v>
-      </c>
-      <c r="J13" s="1">
-        <v>64</v>
-      </c>
-      <c r="K13" s="1">
-        <v>61</v>
-      </c>
-      <c r="L13" s="6">
-        <f>SUM(D13:K13)/L12</f>
-        <v>0.94953271028037378</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -884,228 +1219,15 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <f>SUM(D14:K14)/L12</f>
-        <v>1.1214953271028037E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>6</v>
-      </c>
-      <c r="L15" s="6">
-        <f>SUM(D15:K15)/L12</f>
-        <v>3.925233644859813E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1">
-        <v>48</v>
-      </c>
-      <c r="I20" s="1">
-        <v>44</v>
-      </c>
-      <c r="J20" s="1">
-        <v>42</v>
-      </c>
-      <c r="K20" s="1">
-        <v>48</v>
-      </c>
-      <c r="L20" s="5">
-        <f>SUM(D20:K20)</f>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42</v>
-      </c>
-      <c r="F21" s="1">
-        <v>43</v>
-      </c>
-      <c r="G21" s="1">
-        <v>43</v>
-      </c>
-      <c r="H21" s="1">
-        <v>45</v>
-      </c>
-      <c r="I21" s="1">
-        <v>41</v>
-      </c>
-      <c r="J21" s="1">
-        <v>42</v>
-      </c>
-      <c r="K21" s="1">
-        <v>46</v>
-      </c>
-      <c r="L21" s="6">
-        <f>SUM(D21:K21)/L20</f>
-        <v>0.94535519125683065</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <f>SUM(D22:K22)/L20</f>
-        <v>1.092896174863388E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
-        <f>SUM(D23:K23)/L20</f>
+      <c r="K14" s="5">
+        <f>SUM(C14:J14)/K11</f>
         <v>4.3715846994535519E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D18:L18"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1113,56 +1235,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876B9EAF-1DB9-5445-AA0D-84EA29E6CED4}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1186,14 +1308,14 @@
       <c r="I4" s="1">
         <v>79</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(C4:I4)</f>
         <v>545</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>12</v>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>53</v>
@@ -1216,13 +1338,13 @@
       <c r="I5" s="1">
         <v>50</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>SUM(C5:I5)/J4</f>
         <v>0.65321100917431196</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1246,13 +1368,13 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>SUM(C6:I6)/J4</f>
         <v>1.4678899082568808E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1">
@@ -1276,15 +1398,1143 @@
       <c r="I7" s="1">
         <v>29</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>SUM(C7:I7)/J4</f>
         <v>0.33211009174311928</v>
       </c>
     </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1">
+        <v>93</v>
+      </c>
+      <c r="H11" s="1">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(C11:I11)</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1">
+        <v>69</v>
+      </c>
+      <c r="J12" s="5">
+        <f>SUM(C12:I12)/J11</f>
+        <v>0.72613458528951491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <f>SUM(C13:I13)/J11</f>
+        <v>6.2597809076682318E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5">
+        <f>SUM(C14:I14)/J11</f>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF7508-2ECD-FD41-BC4E-5AF6D6E1E38A}">
+  <dimension ref="B1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="23">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="24">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="23">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="24">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="23">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="24">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="23">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="24">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="26">
+        <v>295</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="21">
+        <f>C27*11</f>
+        <v>4400000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C0F75-A0AA-9E40-93F0-3C43DD8A97C2}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="10">
+        <v>50</v>
+      </c>
+      <c r="C3" s="28">
+        <v>11000000</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29">
+        <f>C3/B3</f>
+        <v>220000</v>
+      </c>
+      <c r="F3" s="30">
+        <f>($E$3-E3)/$B$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="10">
+        <v>80</v>
+      </c>
+      <c r="C4" s="28">
+        <v>5600000</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29">
+        <f>C4/B4</f>
+        <v>70000</v>
+      </c>
+      <c r="F4" s="30">
+        <f>($E$3-E4)/$B$3</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="10">
+        <v>100</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3800000</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29">
+        <f>C5/B5</f>
+        <v>38000</v>
+      </c>
+      <c r="F5" s="30">
+        <f>($E$3-E5)/$B$3</f>
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <v>115</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000000</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29">
+        <f t="shared" ref="E6:E9" si="0">C6/B6</f>
+        <v>26086.956521739132</v>
+      </c>
+      <c r="F6" s="30">
+        <f>($E$3-E6)/$B$3</f>
+        <v>3878.2608695652175</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <v>155</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1800000</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>11612.903225806451</v>
+      </c>
+      <c r="F7" s="30">
+        <f>($E$3-E7)/$B$3</f>
+        <v>4167.7419354838712</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>330</v>
+      </c>
+      <c r="C8" s="28">
+        <v>400000</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>1212.121212121212</v>
+      </c>
+      <c r="F8" s="30">
+        <f>($E$3-E8)/$B$3</f>
+        <v>4375.757575757576</v>
+      </c>
+      <c r="H8" s="22">
+        <v>440000</v>
+      </c>
+      <c r="I8" s="25">
+        <f>H8/E8</f>
+        <v>363.00000000000006</v>
+      </c>
+      <c r="K8" s="22">
+        <f>-1*(($B$3*H9)-$E$3)</f>
+        <v>1500</v>
+      </c>
+      <c r="L8" s="25">
+        <f>H8/$K$8</f>
+        <v>293.33333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <v>380</v>
+      </c>
+      <c r="C9" s="28">
+        <v>350000</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>921.0526315789474</v>
+      </c>
+      <c r="F9" s="30">
+        <f>($E$3-E9)/$B$3</f>
+        <v>4381.5789473684208</v>
+      </c>
+      <c r="H9">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
+        <f>19+50</f>
+        <v>69</v>
+      </c>
+      <c r="C12" s="28">
+        <v>11000000</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31">
+        <f>C12/B12</f>
+        <v>159420.28985507245</v>
+      </c>
+      <c r="F12" s="32">
+        <f>($E$12-E12)/$B$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <f>19+80</f>
+        <v>99</v>
+      </c>
+      <c r="C13" s="28">
+        <v>5600000</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="31">
+        <f>C13/B13</f>
+        <v>56565.656565656565</v>
+      </c>
+      <c r="F13" s="32">
+        <f>($E$12-E13)/$B$12</f>
+        <v>1490.6468592668969</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
+        <f>19+100</f>
+        <v>119</v>
+      </c>
+      <c r="C14" s="28">
+        <v>3800000</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="31">
+        <f>C14/B14</f>
+        <v>31932.773109243699</v>
+      </c>
+      <c r="F14" s="32">
+        <f>($E$12-E14)/$B$12</f>
+        <v>1847.6451702294021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <f>19+115</f>
+        <v>134</v>
+      </c>
+      <c r="C15" s="28">
+        <v>3000000</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="31">
+        <f t="shared" ref="E15:E18" si="1">C15/B15</f>
+        <v>22388.059701492537</v>
+      </c>
+      <c r="F15" s="32">
+        <f>($E$12-E15)/$B$12</f>
+        <v>1985.9743500518828</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="10">
+        <f>19+155</f>
+        <v>174</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1800000</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="31">
+        <f t="shared" si="1"/>
+        <v>10344.827586206897</v>
+      </c>
+      <c r="F16" s="32">
+        <f>($E$12-E16)/$B$12</f>
+        <v>2160.5139459255879</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="10">
+        <f>19+330</f>
+        <v>349</v>
+      </c>
+      <c r="C17" s="28">
+        <v>400000</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="31">
+        <f t="shared" si="1"/>
+        <v>1146.1318051575931</v>
+      </c>
+      <c r="F17" s="32">
+        <f>($E$12-E17)/$B$12</f>
+        <v>2293.8283775349983</v>
+      </c>
+      <c r="H17" s="22">
+        <v>440000</v>
+      </c>
+      <c r="I17" s="25">
+        <f>H17/E17</f>
+        <v>383.9</v>
+      </c>
+      <c r="K17" s="22">
+        <f>-1*(($B$12*H18)-$E$12)</f>
+        <v>1410.2898550724494</v>
+      </c>
+      <c r="L17" s="25">
+        <f>H17/$K$17</f>
+        <v>311.99260096598817</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="10">
+        <f>19+380</f>
+        <v>399</v>
+      </c>
+      <c r="C18" s="28">
+        <v>350000</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="31">
+        <f t="shared" si="1"/>
+        <v>877.19298245614038</v>
+      </c>
+      <c r="F18" s="32">
+        <f>($E$12-E18)/$B$12</f>
+        <v>2297.7260416321201</v>
+      </c>
+      <c r="H18">
+        <v>2290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garibotti/Desktop/Radiacao_Resultados_Fev_22/radiation_feb_22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA8F09-6F8A-7745-A6C5-584EFF152E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BC7908-8C14-F14B-8B47-1BCEF3268A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2020" windowWidth="24160" windowHeight="11640" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
+    <workbookView xWindow="980" yWindow="960" windowWidth="24160" windowHeight="11640" activeTab="1" xr2:uid="{90D526D0-F929-254D-966D-C6E626311E84}"/>
   </bookViews>
   <sheets>
     <sheet name="8jpg_yolov5_on_cX_in_sequence" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
   <si>
     <t>Total</t>
   </si>
@@ -270,12 +270,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Fluxo (n/mˆ2/s)</t>
-  </si>
-  <si>
-    <t>Distância (mm)</t>
-  </si>
-  <si>
     <t>February 7th, 2022</t>
   </si>
   <si>
@@ -283,6 +277,21 @@
   </si>
   <si>
     <t>Obs.: O Rodrigo informou que o fluxo foi calculado para ficar 10% a mais do que no dia anterior (17/02)</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>8jpg_yolov5_on_cX_in_sequence</t>
+  </si>
+  <si>
+    <t>7jpg_yolov5_on_cX</t>
+  </si>
+  <si>
+    <t>Distance (mm)</t>
+  </si>
+  <si>
+    <t>Flux (n/mˆ2/s)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,18 +518,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,7 +551,54 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,370 +914,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942BB48D-C9B9-944D-8C94-74735C4CBEBD}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="31">
+        <v>330</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="32">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1">
-        <v>66</v>
-      </c>
-      <c r="F4" s="1">
-        <v>65</v>
-      </c>
-      <c r="G4" s="1">
-        <v>66</v>
-      </c>
-      <c r="H4" s="1">
-        <v>68</v>
-      </c>
-      <c r="I4" s="1">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1">
-        <v>68</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM(C4:J4)</f>
-        <v>535</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1">
         <v>66</v>
       </c>
-      <c r="D5" s="1">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1">
-        <v>62</v>
-      </c>
       <c r="F5" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1">
-        <v>61</v>
-      </c>
-      <c r="K5" s="5">
-        <f>SUM(C5:J5)/K4</f>
-        <v>0.94953271028037378</v>
+        <v>68</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM(C5:J5)</f>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="K6" s="5">
-        <f>SUM(C6:J6)/K4</f>
-        <v>1.1214953271028037E-2</v>
+        <f>SUM(C6:J6)/K5</f>
+        <v>0.94953271028037378</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <f>SUM(C7:J7)/K5</f>
+        <v>1.1214953271028037E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="5">
-        <f>SUM(C7:J7)/K4</f>
+      <c r="K8" s="5">
+        <f>SUM(C8:J8)/K5</f>
         <v>3.925233644859813E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="31">
+        <v>330</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="32">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1">
-        <v>48</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1">
-        <v>48</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM(C11:J11)</f>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45</v>
-      </c>
-      <c r="H12" s="1">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1">
-        <v>46</v>
-      </c>
-      <c r="K12" s="5">
-        <f>SUM(C12:J12)/K11</f>
-        <v>0.94535519125683065</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <f>SUM(C13:J13)/K11</f>
-        <v>1.092896174863388E-2</v>
+        <v>48</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM(C13:J13)</f>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1">
+        <v>46</v>
+      </c>
+      <c r="K14" s="5">
+        <f>SUM(C14:J14)/K13</f>
+        <v>0.94535519125683065</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <f>SUM(C15:J15)/K13</f>
+        <v>1.092896174863388E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J16" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="5">
-        <f>SUM(C14:J14)/K11</f>
+      <c r="K16" s="5">
+        <f>SUM(C16:J16)/K13</f>
         <v>4.3715846994535519E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1235,338 +1340,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876B9EAF-1DB9-5445-AA0D-84EA29E6CED4}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="31">
+        <v>330</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="32">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1">
-        <v>78</v>
-      </c>
-      <c r="F4" s="1">
-        <v>77</v>
-      </c>
-      <c r="G4" s="1">
-        <v>77</v>
-      </c>
-      <c r="H4" s="1">
-        <v>77</v>
-      </c>
-      <c r="I4" s="1">
-        <v>79</v>
-      </c>
-      <c r="J4" s="4">
-        <f>SUM(C4:I4)</f>
-        <v>545</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
-      </c>
-      <c r="J5" s="5">
-        <f>SUM(C5:I5)/J4</f>
-        <v>0.65321100917431196</v>
+        <v>79</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM(C5:I5)</f>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5">
-        <f>SUM(C6:I6)/J4</f>
-        <v>1.4678899082568808E-2</v>
+        <f>SUM(C6:I6)/J5</f>
+        <v>0.65321100917431196</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(C7:I7)/J5</f>
+        <v>1.4678899082568808E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>24</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>27</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <v>29</v>
       </c>
-      <c r="J7" s="5">
-        <f>SUM(C7:I7)/J4</f>
+      <c r="J8" s="5">
+        <f>SUM(C8:I8)/J5</f>
         <v>0.33211009174311928</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="34">
+        <v>295</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="33">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>89</v>
-      </c>
-      <c r="D11" s="1">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1">
-        <v>93</v>
-      </c>
-      <c r="F11" s="1">
-        <v>91</v>
-      </c>
-      <c r="G11" s="1">
-        <v>93</v>
-      </c>
-      <c r="H11" s="1">
-        <v>89</v>
-      </c>
-      <c r="I11" s="1">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4">
-        <f>SUM(C11:I11)</f>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1">
-        <v>68</v>
-      </c>
-      <c r="G12" s="1">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1">
-        <v>66</v>
-      </c>
-      <c r="I12" s="1">
-        <v>69</v>
-      </c>
-      <c r="J12" s="5">
-        <f>SUM(C12:I12)/J11</f>
-        <v>0.72613458528951491</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5">
-        <f>SUM(C13:I13)/J11</f>
-        <v>6.2597809076682318E-2</v>
+        <v>94</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUM(C13:I13)</f>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1">
+        <v>69</v>
+      </c>
+      <c r="J14" s="5">
+        <f>SUM(C14:I14)/J13</f>
+        <v>0.72613458528951491</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(C15:I15)/J13</f>
+        <v>6.2597809076682318E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>21</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>19</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="1">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <v>19</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H16" s="1">
         <v>19</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I16" s="1">
         <v>20</v>
       </c>
-      <c r="J14" s="5">
-        <f>SUM(C14:I14)/J11</f>
+      <c r="J16" s="5">
+        <f>SUM(C16:I16)/J13</f>
         <v>0.21126760563380281</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,7 +1736,7 @@
   <dimension ref="B1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,46 +1745,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="19"/>
+      <c r="B1" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="19">
         <v>380</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="20">
         <v>350000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="19">
         <v>330</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="20">
         <v>400000</v>
       </c>
     </row>
@@ -1689,24 +1848,24 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19">
         <v>330</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="B18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="20">
         <v>400000</v>
       </c>
     </row>
@@ -1754,24 +1913,24 @@
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="44"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="23">
+      <c r="B26" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="19">
         <v>330</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="B27" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="20">
         <v>400000</v>
       </c>
     </row>
@@ -1811,7 +1970,7 @@
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1819,7 +1978,7 @@
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1835,7 +1994,7 @@
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1851,32 +2010,32 @@
       <c r="B37" s="9"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="22">
+        <v>295</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="26">
-        <v>295</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="21">
+        <v>87</v>
+      </c>
+      <c r="C40" s="17">
         <f>C27*11</f>
         <v>4400000</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -1891,7 +2050,7 @@
       <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1899,7 +2058,7 @@
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1907,7 +2066,7 @@
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1915,7 +2074,7 @@
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1931,7 +2090,7 @@
       <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1939,7 +2098,7 @@
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1971,7 +2130,7 @@
       <c r="B52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1979,7 +2138,7 @@
       <c r="B53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1987,7 +2146,7 @@
       <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2003,7 +2162,7 @@
       <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2011,7 +2170,7 @@
       <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2019,7 +2178,7 @@
       <c r="B58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2035,7 +2194,7 @@
       <c r="B60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2043,7 +2202,7 @@
       <c r="B61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2051,7 +2210,7 @@
       <c r="B62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2059,7 +2218,7 @@
       <c r="B63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2067,7 +2226,7 @@
       <c r="B64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2091,7 +2250,7 @@
       <c r="B67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2099,7 +2258,7 @@
       <c r="B68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2107,7 +2266,7 @@
       <c r="B69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2115,7 +2274,7 @@
       <c r="B70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2139,7 +2298,7 @@
       <c r="B73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2163,7 +2322,7 @@
       <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2171,7 +2330,7 @@
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2179,7 +2338,7 @@
       <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2187,7 +2346,7 @@
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2195,7 +2354,7 @@
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2224,7 +2383,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,27 +2393,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>80</v>
+      <c r="B2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>50</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="24">
         <v>11000000</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29">
+      <c r="D3" s="23"/>
+      <c r="E3" s="25">
         <f>C3/B3</f>
         <v>220000</v>
       </c>
-      <c r="F3" s="30">
-        <f>($E$3-E3)/$B$3</f>
+      <c r="F3" s="26">
+        <f t="shared" ref="F3:F9" si="0">($E$3-E3)/$B$3</f>
         <v>0</v>
       </c>
     </row>
@@ -2262,16 +2421,16 @@
       <c r="B4" s="10">
         <v>80</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>5600000</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29">
+      <c r="D4" s="23"/>
+      <c r="E4" s="25">
         <f>C4/B4</f>
         <v>70000</v>
       </c>
-      <c r="F4" s="30">
-        <f>($E$3-E4)/$B$3</f>
+      <c r="F4" s="26">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -2279,16 +2438,16 @@
       <c r="B5" s="10">
         <v>100</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>3800000</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29">
+      <c r="D5" s="23"/>
+      <c r="E5" s="25">
         <f>C5/B5</f>
         <v>38000</v>
       </c>
-      <c r="F5" s="30">
-        <f>($E$3-E5)/$B$3</f>
+      <c r="F5" s="26">
+        <f t="shared" si="0"/>
         <v>3640</v>
       </c>
     </row>
@@ -2296,16 +2455,16 @@
       <c r="B6" s="10">
         <v>115</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>3000000</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29">
-        <f t="shared" ref="E6:E9" si="0">C6/B6</f>
+      <c r="D6" s="23"/>
+      <c r="E6" s="25">
+        <f t="shared" ref="E6:E9" si="1">C6/B6</f>
         <v>26086.956521739132</v>
       </c>
-      <c r="F6" s="30">
-        <f>($E$3-E6)/$B$3</f>
+      <c r="F6" s="26">
+        <f t="shared" si="0"/>
         <v>3878.2608695652175</v>
       </c>
     </row>
@@ -2313,16 +2472,16 @@
       <c r="B7" s="10">
         <v>155</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>1800000</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="29">
+      <c r="D7" s="23"/>
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>11612.903225806451</v>
+      </c>
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
-        <v>11612.903225806451</v>
-      </c>
-      <c r="F7" s="30">
-        <f>($E$3-E7)/$B$3</f>
         <v>4167.7419354838712</v>
       </c>
     </row>
@@ -2330,30 +2489,30 @@
       <c r="B8" s="10">
         <v>330</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>400000</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29">
+      <c r="D8" s="23"/>
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>1212.121212121212</v>
+      </c>
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
-        <v>1212.121212121212</v>
-      </c>
-      <c r="F8" s="30">
-        <f>($E$3-E8)/$B$3</f>
         <v>4375.757575757576</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>440000</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="21">
         <f>H8/E8</f>
         <v>363.00000000000006</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <f>-1*(($B$3*H9)-$E$3)</f>
         <v>1500</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="21">
         <f>H8/$K$8</f>
         <v>293.33333333333331</v>
       </c>
@@ -2362,16 +2521,16 @@
       <c r="B9" s="10">
         <v>380</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>350000</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29">
+      <c r="D9" s="23"/>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>921.0526315789474</v>
+      </c>
+      <c r="F9" s="26">
         <f t="shared" si="0"/>
-        <v>921.0526315789474</v>
-      </c>
-      <c r="F9" s="30">
-        <f>($E$3-E9)/$B$3</f>
         <v>4381.5789473684208</v>
       </c>
       <c r="H9">
@@ -2379,32 +2538,32 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="27"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="B11" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <f>19+50</f>
         <v>69</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>11000000</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31">
+      <c r="D12" s="23"/>
+      <c r="E12" s="27">
         <f>C12/B12</f>
         <v>159420.28985507245</v>
       </c>
-      <c r="F12" s="32">
-        <f>($E$12-E12)/$B$12</f>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12:F18" si="2">($E$12-E12)/$B$12</f>
         <v>0</v>
       </c>
     </row>
@@ -2413,16 +2572,16 @@
         <f>19+80</f>
         <v>99</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>5600000</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="31">
+      <c r="D13" s="23"/>
+      <c r="E13" s="27">
         <f>C13/B13</f>
         <v>56565.656565656565</v>
       </c>
-      <c r="F13" s="32">
-        <f>($E$12-E13)/$B$12</f>
+      <c r="F13" s="28">
+        <f t="shared" si="2"/>
         <v>1490.6468592668969</v>
       </c>
     </row>
@@ -2431,16 +2590,16 @@
         <f>19+100</f>
         <v>119</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>3800000</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="31">
+      <c r="D14" s="23"/>
+      <c r="E14" s="27">
         <f>C14/B14</f>
         <v>31932.773109243699</v>
       </c>
-      <c r="F14" s="32">
-        <f>($E$12-E14)/$B$12</f>
+      <c r="F14" s="28">
+        <f t="shared" si="2"/>
         <v>1847.6451702294021</v>
       </c>
     </row>
@@ -2449,16 +2608,16 @@
         <f>19+115</f>
         <v>134</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>3000000</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="31">
-        <f t="shared" ref="E15:E18" si="1">C15/B15</f>
+      <c r="D15" s="23"/>
+      <c r="E15" s="27">
+        <f t="shared" ref="E15:E18" si="3">C15/B15</f>
         <v>22388.059701492537</v>
       </c>
-      <c r="F15" s="32">
-        <f>($E$12-E15)/$B$12</f>
+      <c r="F15" s="28">
+        <f t="shared" si="2"/>
         <v>1985.9743500518828</v>
       </c>
     </row>
@@ -2467,16 +2626,16 @@
         <f>19+155</f>
         <v>174</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>1800000</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31">
-        <f t="shared" si="1"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27">
+        <f t="shared" si="3"/>
         <v>10344.827586206897</v>
       </c>
-      <c r="F16" s="32">
-        <f>($E$12-E16)/$B$12</f>
+      <c r="F16" s="28">
+        <f t="shared" si="2"/>
         <v>2160.5139459255879</v>
       </c>
     </row>
@@ -2485,30 +2644,30 @@
         <f>19+330</f>
         <v>349</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>400000</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31">
-        <f t="shared" si="1"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27">
+        <f t="shared" si="3"/>
         <v>1146.1318051575931</v>
       </c>
-      <c r="F17" s="32">
-        <f>($E$12-E17)/$B$12</f>
+      <c r="F17" s="28">
+        <f t="shared" si="2"/>
         <v>2293.8283775349983</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="18">
         <v>440000</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="21">
         <f>H17/E17</f>
         <v>383.9</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="18">
         <f>-1*(($B$12*H18)-$E$12)</f>
         <v>1410.2898550724494</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="21">
         <f>H17/$K$17</f>
         <v>311.99260096598817</v>
       </c>
@@ -2518,16 +2677,16 @@
         <f>19+380</f>
         <v>399</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="24">
         <v>350000</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="31">
-        <f t="shared" si="1"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27">
+        <f t="shared" si="3"/>
         <v>877.19298245614038</v>
       </c>
-      <c r="F18" s="32">
-        <f>($E$12-E18)/$B$12</f>
+      <c r="F18" s="28">
+        <f t="shared" si="2"/>
         <v>2297.7260416321201</v>
       </c>
       <c r="H18">
